--- a/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B928D5B5-62CB-48FB-97A2-FCBCD0DE0D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F16631-3B25-4F9E-BE51-61128A3189D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8AE9FC3-E895-4F31-86AB-B8DEE584CD6B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC2809ED-67A7-46D9-AA4F-D02EFAD8A58E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>70,65%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>68,65%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>29,35%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>71,25%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>65,82%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
   </si>
   <si>
     <t>68,5%</t>
   </si>
   <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>60,51%</t>
   </si>
   <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>55,36%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>39,49%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>44,64%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>94,48%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,55 @@
     <t>30,26%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>21,48%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>78,52%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>82,76%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,160 +422,160 @@
     <t>49,05%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>50,69%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>49,31%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7F906E-7C02-48AF-B6E3-D7D214E83773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0002D9C6-9B14-445E-9BB6-03939F3A040D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1764,7 +1770,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1785,13 @@
         <v>134064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -1794,13 +1800,13 @@
         <v>182127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>583</v>
@@ -1809,13 +1815,13 @@
         <v>316191</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1889,13 @@
         <v>207959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -1898,13 +1904,13 @@
         <v>207342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>588</v>
@@ -1913,13 +1919,13 @@
         <v>415301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>43309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -1949,13 +1955,13 @@
         <v>33234</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -1964,13 +1970,13 @@
         <v>76543</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2044,13 @@
         <v>279783</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>343</v>
@@ -2053,13 +2059,13 @@
         <v>377861</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>590</v>
@@ -2068,13 +2074,13 @@
         <v>657644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2095,13 @@
         <v>290648</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>502</v>
@@ -2104,13 +2110,13 @@
         <v>349105</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>791</v>
@@ -2119,13 +2125,13 @@
         <v>639753</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,10 +2202,10 @@
         <v>70</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>925</v>
@@ -2208,13 +2214,13 @@
         <v>752571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>1577</v>
@@ -2223,13 +2229,13 @@
         <v>1482352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,10 +2253,10 @@
         <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -2259,13 +2265,13 @@
         <v>45255</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -2274,13 +2280,13 @@
         <v>87901</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2354,13 @@
         <v>2232116</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>3145</v>
@@ -2363,13 +2369,13 @@
         <v>2361540</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>5275</v>
@@ -2378,13 +2384,13 @@
         <v>4593655</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>858928</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1655</v>
@@ -2414,13 +2420,13 @@
         <v>1062899</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>2591</v>
@@ -2429,13 +2435,13 @@
         <v>1921828</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F16631-3B25-4F9E-BE51-61128A3189D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D90723D-6DB2-407C-83FB-69BBDAF779B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC2809ED-67A7-46D9-AA4F-D02EFAD8A58E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{641803F8-7A4E-4B27-970D-49E6DFD0D531}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0002D9C6-9B14-445E-9BB6-03939F3A040D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326FEEE7-EECE-4BF1-9CB0-BFEE7EF90A2F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D90723D-6DB2-407C-83FB-69BBDAF779B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF062FC6-E36A-4A49-8AB4-D65B3C37C3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{641803F8-7A4E-4B27-970D-49E6DFD0D531}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F74D3AE4-F8AB-4228-8A18-E6EE7532700D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>70,65%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>68,65%</t>
   </si>
   <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>29,35%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>71,25%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>65,82%</t>
   </si>
   <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>68,5%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>60,51%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
   </si>
   <si>
     <t>55,36%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
   </si>
   <si>
     <t>39,49%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>44,64%</t>
   </si>
   <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>94,48%</t>
   </si>
   <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,49 @@
     <t>30,26%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>21,48%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>78,52%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>82,76%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,160 +416,160 @@
     <t>49,05%</t>
   </si>
   <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>50,69%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
   </si>
   <si>
     <t>49,31%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326FEEE7-EECE-4BF1-9CB0-BFEE7EF90A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A7D54-3C05-43CE-A1E5-C92385DF3B7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1770,7 +1764,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1779,13 @@
         <v>134064</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -1800,13 +1794,13 @@
         <v>182127</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>583</v>
@@ -1815,13 +1809,13 @@
         <v>316191</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1883,13 @@
         <v>207959</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -1904,13 +1898,13 @@
         <v>207342</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>588</v>
@@ -1919,13 +1913,13 @@
         <v>415301</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1934,13 @@
         <v>43309</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -1955,13 +1949,13 @@
         <v>33234</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -1970,13 +1964,13 @@
         <v>76543</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2038,13 @@
         <v>279783</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>343</v>
@@ -2059,13 +2053,13 @@
         <v>377861</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>590</v>
@@ -2074,13 +2068,13 @@
         <v>657644</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2089,13 @@
         <v>290648</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>502</v>
@@ -2110,13 +2104,13 @@
         <v>349105</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>791</v>
@@ -2125,13 +2119,13 @@
         <v>639753</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2202,10 +2196,10 @@
         <v>70</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>925</v>
@@ -2214,13 +2208,13 @@
         <v>752571</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>1577</v>
@@ -2229,13 +2223,13 @@
         <v>1482352</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,10 +2247,10 @@
         <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -2265,13 +2259,13 @@
         <v>45255</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -2280,13 +2274,13 @@
         <v>87901</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2348,13 @@
         <v>2232116</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>3145</v>
@@ -2369,13 +2363,13 @@
         <v>2361540</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>5275</v>
@@ -2384,13 +2378,13 @@
         <v>4593655</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2399,13 @@
         <v>858928</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1655</v>
@@ -2420,13 +2414,13 @@
         <v>1062899</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>2591</v>
@@ -2435,13 +2429,13 @@
         <v>1921828</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF062FC6-E36A-4A49-8AB4-D65B3C37C3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23CD431F-43BA-4B04-B4F0-3BE66A17F61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F74D3AE4-F8AB-4228-8A18-E6EE7532700D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DA23ADA0-CCD7-4D81-8CAE-F3DCEA0DD4DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,442 +134,454 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A7D54-3C05-43CE-A1E5-C92385DF3B7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6430DA-0AD7-4F06-B6EE-B9E6C84F412D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1105,7 +1117,7 @@
         <v>229</v>
       </c>
       <c r="D4" s="7">
-        <v>183409</v>
+        <v>221630</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1120,7 +1132,7 @@
         <v>368</v>
       </c>
       <c r="I4" s="7">
-        <v>183645</v>
+        <v>195277</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1135,7 +1147,7 @@
         <v>597</v>
       </c>
       <c r="N4" s="7">
-        <v>367054</v>
+        <v>416906</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1156,7 +1168,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="7">
-        <v>76184</v>
+        <v>89082</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1171,7 +1183,7 @@
         <v>166</v>
       </c>
       <c r="I5" s="7">
-        <v>83848</v>
+        <v>88412</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1186,7 +1198,7 @@
         <v>267</v>
       </c>
       <c r="N5" s="7">
-        <v>160032</v>
+        <v>177495</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1207,7 +1219,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259593</v>
+        <v>310712</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1222,7 +1234,7 @@
         <v>534</v>
       </c>
       <c r="I6" s="7">
-        <v>267493</v>
+        <v>283689</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1237,7 +1249,7 @@
         <v>864</v>
       </c>
       <c r="N6" s="7">
-        <v>527086</v>
+        <v>594401</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1272,7 @@
         <v>257</v>
       </c>
       <c r="D7" s="7">
-        <v>361640</v>
+        <v>364034</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1275,7 +1287,7 @@
         <v>441</v>
       </c>
       <c r="I7" s="7">
-        <v>340985</v>
+        <v>316939</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1290,7 +1302,7 @@
         <v>698</v>
       </c>
       <c r="N7" s="7">
-        <v>702625</v>
+        <v>680974</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1311,7 +1323,7 @@
         <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>145947</v>
+        <v>143233</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1326,7 +1338,7 @@
         <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>177089</v>
+        <v>164439</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1341,7 +1353,7 @@
         <v>340</v>
       </c>
       <c r="N8" s="7">
-        <v>323036</v>
+        <v>307671</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1362,7 +1374,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507587</v>
+        <v>507267</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1377,7 +1389,7 @@
         <v>667</v>
       </c>
       <c r="I9" s="7">
-        <v>518074</v>
+        <v>481378</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1392,7 +1404,7 @@
         <v>1038</v>
       </c>
       <c r="N9" s="7">
-        <v>1025661</v>
+        <v>988645</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1427,7 @@
         <v>183</v>
       </c>
       <c r="D10" s="7">
-        <v>171794</v>
+        <v>169578</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1430,7 +1442,7 @@
         <v>218</v>
       </c>
       <c r="I10" s="7">
-        <v>156881</v>
+        <v>146479</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1445,7 +1457,7 @@
         <v>401</v>
       </c>
       <c r="N10" s="7">
-        <v>328675</v>
+        <v>316057</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1466,7 +1478,7 @@
         <v>130</v>
       </c>
       <c r="D11" s="7">
-        <v>112133</v>
+        <v>109267</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1481,7 +1493,7 @@
         <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>152903</v>
+        <v>143456</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1496,7 +1508,7 @@
         <v>356</v>
       </c>
       <c r="N11" s="7">
-        <v>265036</v>
+        <v>252723</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1517,7 +1529,7 @@
         <v>313</v>
       </c>
       <c r="D12" s="7">
-        <v>283927</v>
+        <v>278845</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1532,7 +1544,7 @@
         <v>444</v>
       </c>
       <c r="I12" s="7">
-        <v>309784</v>
+        <v>289935</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1547,7 +1559,7 @@
         <v>757</v>
       </c>
       <c r="N12" s="7">
-        <v>593711</v>
+        <v>568780</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1582,7 @@
         <v>215</v>
       </c>
       <c r="D13" s="7">
-        <v>239587</v>
+        <v>230220</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1585,7 +1597,7 @@
         <v>431</v>
       </c>
       <c r="I13" s="7">
-        <v>294841</v>
+        <v>272905</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1600,7 +1612,7 @@
         <v>646</v>
       </c>
       <c r="N13" s="7">
-        <v>534429</v>
+        <v>503124</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1621,7 +1633,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>13997</v>
+        <v>13406</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1636,7 +1648,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="7">
-        <v>39339</v>
+        <v>92003</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1651,7 +1663,7 @@
         <v>48</v>
       </c>
       <c r="N14" s="7">
-        <v>53335</v>
+        <v>105409</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1672,7 +1684,7 @@
         <v>231</v>
       </c>
       <c r="D15" s="7">
-        <v>253584</v>
+        <v>243626</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1687,7 +1699,7 @@
         <v>463</v>
       </c>
       <c r="I15" s="7">
-        <v>334180</v>
+        <v>364908</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1702,7 +1714,7 @@
         <v>694</v>
       </c>
       <c r="N15" s="7">
-        <v>587764</v>
+        <v>608533</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1737,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>58163</v>
+        <v>52513</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1740,7 +1752,7 @@
         <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>47413</v>
+        <v>42088</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1755,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="N16" s="7">
-        <v>105576</v>
+        <v>94601</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1764,7 +1776,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,46 +1788,46 @@
         <v>194</v>
       </c>
       <c r="D17" s="7">
-        <v>134064</v>
+        <v>122222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
       </c>
       <c r="I17" s="7">
-        <v>182127</v>
+        <v>164407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>583</v>
       </c>
       <c r="N17" s="7">
-        <v>316191</v>
+        <v>286629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,7 +1839,7 @@
         <v>275</v>
       </c>
       <c r="D18" s="7">
-        <v>192227</v>
+        <v>174735</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1842,7 +1854,7 @@
         <v>486</v>
       </c>
       <c r="I18" s="7">
-        <v>229540</v>
+        <v>206495</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1857,7 +1869,7 @@
         <v>761</v>
       </c>
       <c r="N18" s="7">
-        <v>421767</v>
+        <v>381230</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1871,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1880,46 +1892,46 @@
         <v>266</v>
       </c>
       <c r="D19" s="7">
-        <v>207959</v>
+        <v>203071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
       </c>
       <c r="I19" s="7">
-        <v>207342</v>
+        <v>193647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>588</v>
       </c>
       <c r="N19" s="7">
-        <v>415301</v>
+        <v>396718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,46 +1943,46 @@
         <v>57</v>
       </c>
       <c r="D20" s="7">
-        <v>43309</v>
+        <v>41493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
       </c>
       <c r="I20" s="7">
-        <v>33234</v>
+        <v>30750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
       </c>
       <c r="N20" s="7">
-        <v>76543</v>
+        <v>72243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1994,7 @@
         <v>323</v>
       </c>
       <c r="D21" s="7">
-        <v>251268</v>
+        <v>244564</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1997,7 +2009,7 @@
         <v>381</v>
       </c>
       <c r="I21" s="7">
-        <v>240576</v>
+        <v>224397</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2012,7 +2024,7 @@
         <v>704</v>
       </c>
       <c r="N21" s="7">
-        <v>491844</v>
+        <v>468961</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2035,46 +2047,46 @@
         <v>247</v>
       </c>
       <c r="D22" s="7">
-        <v>279783</v>
+        <v>277231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>343</v>
       </c>
       <c r="I22" s="7">
-        <v>377861</v>
+        <v>453623</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>590</v>
       </c>
       <c r="N22" s="7">
-        <v>657644</v>
+        <v>730853</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,46 +2098,46 @@
         <v>289</v>
       </c>
       <c r="D23" s="7">
-        <v>290648</v>
+        <v>292117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>502</v>
       </c>
       <c r="I23" s="7">
-        <v>349105</v>
+        <v>325304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>791</v>
       </c>
       <c r="N23" s="7">
-        <v>639753</v>
+        <v>617421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2149,7 @@
         <v>536</v>
       </c>
       <c r="D24" s="7">
-        <v>570431</v>
+        <v>569348</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2152,7 +2164,7 @@
         <v>845</v>
       </c>
       <c r="I24" s="7">
-        <v>726966</v>
+        <v>778927</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2167,7 +2179,7 @@
         <v>1381</v>
       </c>
       <c r="N24" s="7">
-        <v>1297397</v>
+        <v>1348274</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2181,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2190,46 +2202,46 @@
         <v>652</v>
       </c>
       <c r="D25" s="7">
-        <v>729780</v>
+        <v>819518</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>925</v>
       </c>
       <c r="I25" s="7">
-        <v>752571</v>
+        <v>622992</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1577</v>
       </c>
       <c r="N25" s="7">
-        <v>1482352</v>
+        <v>1442509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,46 +2253,46 @@
         <v>35</v>
       </c>
       <c r="D26" s="7">
-        <v>42647</v>
+        <v>36372</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>45255</v>
+        <v>37388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
       </c>
       <c r="N26" s="7">
-        <v>87901</v>
+        <v>73761</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2304,7 @@
         <v>687</v>
       </c>
       <c r="D27" s="7">
-        <v>772427</v>
+        <v>855890</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2307,7 +2319,7 @@
         <v>980</v>
       </c>
       <c r="I27" s="7">
-        <v>797826</v>
+        <v>660380</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2322,7 +2334,7 @@
         <v>1667</v>
       </c>
       <c r="N27" s="7">
-        <v>1570253</v>
+        <v>1516270</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2345,46 +2357,46 @@
         <v>2130</v>
       </c>
       <c r="D28" s="7">
-        <v>2232116</v>
+        <v>2337794</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>3145</v>
       </c>
       <c r="I28" s="7">
-        <v>2361540</v>
+        <v>2243949</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5275</v>
       </c>
       <c r="N28" s="7">
-        <v>4593655</v>
+        <v>4581743</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,46 +2408,46 @@
         <v>936</v>
       </c>
       <c r="D29" s="7">
-        <v>858928</v>
+        <v>847193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1655</v>
       </c>
       <c r="I29" s="7">
-        <v>1062899</v>
+        <v>1046159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2591</v>
       </c>
       <c r="N29" s="7">
-        <v>1921828</v>
+        <v>1893352</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2459,7 @@
         <v>3066</v>
       </c>
       <c r="D30" s="7">
-        <v>3091044</v>
+        <v>3184987</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2462,7 +2474,7 @@
         <v>4800</v>
       </c>
       <c r="I30" s="7">
-        <v>3424439</v>
+        <v>3290108</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2477,7 +2489,7 @@
         <v>7866</v>
       </c>
       <c r="N30" s="7">
-        <v>6515483</v>
+        <v>6475095</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
